--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/10/seed2/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.05689999999999</v>
+        <v>-11.04739999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>12.8922</v>
+        <v>12.5282</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>13.09560000000001</v>
+        <v>12.82630000000001</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.32569999999999</v>
+        <v>13.18639999999999</v>
       </c>
     </row>
     <row r="12">
@@ -791,13 +791,13 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.2877</v>
+        <v>-13.33710000000001</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.77219999999998</v>
+        <v>12.91299999999999</v>
       </c>
     </row>
     <row r="22">
@@ -825,7 +825,7 @@
         <v>5.8</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.6846</v>
+        <v>-11.9646</v>
       </c>
       <c r="D23" t="n">
         <v>-8.529999999999999</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.16539999999999</v>
+        <v>-11.0904</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
